--- a/input/AMAZON_SCENARIO_9.xlsx
+++ b/input/AMAZON_SCENARIO_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9FFA3E-D1FB-5C41-AF57-ED6054A7FBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D841FE5-1F7E-F641-999A-E4D4535E11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
